--- a/static/game_scoring/Game_Scoring.xlsx
+++ b/static/game_scoring/Game_Scoring.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Category/Endless Game</t>
   </si>
@@ -40,6 +40,15 @@
     <t>Minutes Duration</t>
   </si>
   <si>
+    <t>Vs Win</t>
+  </si>
+  <si>
+    <t>Total Possible Inputs</t>
+  </si>
+  <si>
+    <t>points per input</t>
+  </si>
+  <si>
     <t>Easy</t>
   </si>
   <si>
@@ -61,6 +70,18 @@
     <t>2 Player</t>
   </si>
   <si>
+    <t>2 Player Endless</t>
+  </si>
+  <si>
+    <t>Endless (Fever)</t>
+  </si>
+  <si>
+    <t>Challenge (Megamix)</t>
+  </si>
+  <si>
+    <t>Endless (Megamix)</t>
+  </si>
+  <si>
     <t>Challenge</t>
   </si>
   <si>
@@ -71,13 +92,28 @@
   </si>
   <si>
     <t>Pirate Crew</t>
+  </si>
+  <si>
+    <t>Rhythm Fighter</t>
+  </si>
+  <si>
+    <t>Vs</t>
+  </si>
+  <si>
+    <t>Rhythm Test</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Introduction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -89,8 +125,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +176,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBFD7FE"/>
         <bgColor rgb="FFBFD7FE"/>
       </patternFill>
@@ -173,6 +226,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB3DF"/>
         <bgColor rgb="FFFFB3DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -188,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -213,7 +272,7 @@
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -235,6 +294,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -481,13 +549,22 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>25.0</v>
@@ -497,11 +574,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>75.0</v>
@@ -511,11 +588,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>125.0</v>
@@ -525,11 +602,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>175.0</v>
@@ -539,11 +616,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>200.0</v>
@@ -553,11 +630,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>75.0</v>
@@ -567,48 +644,158 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>150.0</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="A10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I15" s="1">
         <v>5.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>

--- a/static/game_scoring/Game_Scoring.xlsx
+++ b/static/game_scoring/Game_Scoring.xlsx
@@ -188,8 +188,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFD7FE"/>
-        <bgColor rgb="FFBFD7FE"/>
+        <fgColor rgb="FF92B9F7"/>
+        <bgColor rgb="FF92B9F7"/>
       </patternFill>
     </fill>
     <fill>
@@ -200,26 +200,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA3"/>
-        <bgColor rgb="FFFFFFA3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
-        <bgColor rgb="FFFFCACA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFABAB"/>
-        <bgColor rgb="FFFFABAB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5BDFF"/>
-        <bgColor rgb="FFE5BDFF"/>
+        <fgColor rgb="FFE5E593"/>
+        <bgColor rgb="FFE5E593"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE59393"/>
+        <bgColor rgb="FFE59393"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF9900FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -290,10 +290,10 @@
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">

--- a/static/game_scoring/Game_Scoring.xlsx
+++ b/static/game_scoring/Game_Scoring.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Category/Endless Game</t>
   </si>
@@ -70,9 +70,6 @@
     <t>2 Player</t>
   </si>
   <si>
-    <t>2 Player Endless</t>
-  </si>
-  <si>
     <t>Endless (Fever)</t>
   </si>
   <si>
@@ -89,6 +86,18 @@
   </si>
   <si>
     <t>Endless</t>
+  </si>
+  <si>
+    <t>Bossa Nova (2P)</t>
+  </si>
+  <si>
+    <t>Mochi Pounding</t>
+  </si>
+  <si>
+    <t>Clap Trap (2P)</t>
+  </si>
+  <si>
+    <t>Kung Fu Ball</t>
   </si>
   <si>
     <t>Pirate Crew</t>
@@ -644,7 +653,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -661,7 +670,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -678,7 +687,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -695,106 +704,145 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
+      <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>150.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>150.0</v>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="H14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I14" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H15" s="1">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="I15" s="1">
         <v>5.0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1">
         <v>150.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="1">
+    <row r="21">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1">
         <v>32.0</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L22" s="1">
         <v>7.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="1">
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="1">
         <v>5.0</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L23" s="1">
         <v>15.0</v>
       </c>
     </row>
